--- a/Nerdle - Design Document.xlsx
+++ b/Nerdle - Design Document.xlsx
@@ -147,7 +147,12 @@
     <t>calculus</t>
   </si>
   <si>
-    <t>Rather than supporting uploading of config files, we are giving options on UI, to select total number of columns and Equation type,that will be more interactive for user and can provide multiple options to user to guess different sets</t>
+    <t xml:space="preserve">Rather than supporting uploading of config files, we are giving options on UI, to select total number of columns and Equation type by default will be arithmetic as in GameConfig.json,
+Later on , we can provide option to user to select equation type from UI, that will be more interactive for user and can provide multiple options to user to guess different sets.
+Though I have not implement Type selection on UI, due to time constraints, but we will assume that user will have below options on UI to select:
+1) Select Number of columns.
+2) Select Type of equation (conversion, arithmetic, calculus etc)
+</t>
   </si>
   <si>
     <t>MileStone - 2</t>
